--- a/biology/Zoologie/Acantholycosa_norvegica/Acantholycosa_norvegica.xlsx
+++ b/biology/Zoologie/Acantholycosa_norvegica/Acantholycosa_norvegica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite Lycose des Sudètes
 Acantholycosa norvegica , la Petite Lycose des Sudètes, est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite à partir d'un spécimen découvert en Norvège[1], la majorité de la population se trouve dans le Nord de l'Europe[2]. Il existe cependant une sous-espèce, Acantholycosa norvegica sudetica, que l'on peut trouver dans les Alpes, les Vosges (donc en France) ou encore les Carpates[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite à partir d'un spécimen découvert en Norvège, la majorité de la population se trouve dans le Nord de l'Europe. Il existe cependant une sous-espèce, Acantholycosa norvegica sudetica, que l'on peut trouver dans les Alpes, les Vosges (donc en France) ou encore les Carpates.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre sur les rochers ou dans les grottes[4] au-dessus de la limite des arbres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre sur les rochers ou dans les grottes au-dessus de la limite des arbres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure entre 6 et 7 mm et la femelle entre 7,5 et 9 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure entre 6 et 7 mm et la femelle entre 7,5 et 9 mm.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite sous le nom de Lycosa norvegica par Tord Tamerlan Teodor Thorell en 1872[1]. En 1936, elle est reclassée dans le genre Acantholycosa par Dmitry Kharitonov (en)[5].
-Acantholycosa norvegica a pour synonymes[6]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite sous le nom de Lycosa norvegica par Tord Tamerlan Teodor Thorell en 1872. En 1936, elle est reclassée dans le genre Acantholycosa par Dmitry Kharitonov (en).
+Acantholycosa norvegica a pour synonymes:
 Acantholycosa atalanta (L.Koch, 1879)
 Acantholycosa beklemischevi Charitonov, 1936
 Acantholycosa fedotovi Charitonov, 1936
@@ -616,7 +636,7 @@
 Acantholycosa raboti (Simon, 1887)
 Acantholycosa spasskyi Charitonov, 1936
 Lycosa norvegica Thorell, 1872
-La validité de la sous-espèce Acantholycosa norvegica sudetica est discutée du fait de la grande variabilité de l'espèce[3].
+La validité de la sous-espèce Acantholycosa norvegica sudetica est discutée du fait de la grande variabilité de l'espèce.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Danger sur l'espèce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée en danger critique sur la liste rouge des araignées de France métropolitaine[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée en danger critique sur la liste rouge des araignées de France métropolitaine.
 </t>
         </is>
       </c>
@@ -676,7 +698,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Tord Tamerlan Teodor Thorell, Remarks on synonyms of European spiders, Uppsala, C. J. Lundström, 1872 (lire en ligne), p. 229-374</t>
         </is>
